--- a/medicine/Handicap/Benjy/Benjy.xlsx
+++ b/medicine/Handicap/Benjy/Benjy.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Benjy est un court métrage documentaire américain réalisé par Fred Zinnemann en 1951.
 Il a remporté l'Oscar du meilleur court métrage documentaire en 1952.
@@ -512,7 +524,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Un jeune garçon, Benjy, est handicapé de naissance. Un pédiatre projette de le soumettre à un traitement qui peut améliorer son état, mais il doit tout d'abord convaincre les parents du garçon, qui l'ont rejeté à cause de son handicap.
 </t>
@@ -543,7 +557,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Réalisation : Fred Zinnemann
 Scénario : Stewart Stern
@@ -551,7 +567,7 @@
 Montage : George Tomasini
 Société de production : Los Angeles Orthopaedic Hospital
 Société de distribution : Paramount Pictures Corporation
-Durée : 30 minutes[1]</t>
+Durée : 30 minutes</t>
         </is>
       </c>
     </row>
@@ -579,7 +595,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Lee Aaker : Benjy
 Henry Fonda : narrateur</t>
@@ -610,7 +628,9 @@
           <t>Contexte</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Zinnemann et l'équipe de production ont travaillé bénévolement pour ce film, destiné initialement à une collecte de fonds pour le Los Angeles Orthopaedic Hospital.
 </t>
